--- a/bsp/at32/at32f403a-board/applications/porting/fal/script/fal.xlsx
+++ b/bsp/at32/at32f403a-board/applications/porting/fal/script/fal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\code\rt-thread\bsp\at32\at32f403a-board\applications\porting\fal\build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\code\rt-thread\bsp\at32\at32f403a-board\applications\porting\fal\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF441F2-90A7-4A40-9516-B8698A829E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1672E736-25EC-4726-AFBC-5C25D73730E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6204" yWindow="1980" windowWidth="23040" windowHeight="12072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>存储名称</t>
   </si>
@@ -58,9 +58,6 @@
     <t>所有大小</t>
   </si>
   <si>
-    <t>OnChip</t>
-  </si>
-  <si>
     <t>BOOT</t>
   </si>
   <si>
@@ -70,58 +67,72 @@
     <t>APP_A</t>
   </si>
   <si>
+    <t>APP_B</t>
+  </si>
+  <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>FACTORY</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>KVDB</t>
+  </si>
+  <si>
+    <t>TSDB</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>USERDATA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>属性表</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>V1.0.0</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>Letian</t>
+  </si>
+  <si>
+    <t>ATTR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>w25q64</t>
   </si>
   <si>
-    <t>APP_B</t>
-  </si>
-  <si>
-    <t>SYSCFG</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>FACTORY</t>
-  </si>
-  <si>
-    <t>OTA</t>
-  </si>
-  <si>
-    <t>KVDB</t>
-  </si>
-  <si>
-    <t>TSDB</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>USERDATA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>属性表</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>V1.0.0</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>Letian</t>
+    <t>w25q64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>onchip_flash</t>
+  </si>
+  <si>
+    <t>ram_flash</t>
   </si>
 </sst>
 </file>
@@ -172,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,17 +197,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,23 +335,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,14 +674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>45708</v>
@@ -667,18 +689,18 @@
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -695,20 +717,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -749,10 +771,10 @@
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -761,301 +783,333 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="15">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="10">
-        <f>SUM(E2:E6)</f>
-        <v>1024</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1024</v>
+      <c r="J2" s="16">
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="5">
-        <f>C2+E2*1024</f>
-        <v>131072</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>"0x" &amp; DEC2HEX(C3,8)</f>
-        <v>0x00020000</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10">
-        <f>SUM(E7:E14)</f>
-        <v>6144</v>
-      </c>
-      <c r="J3" s="11">
-        <v>8192</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="15">
+        <f>SUM(E3:E7)</f>
+        <v>1024</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1024</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <f>C3+E3*1024</f>
-        <v>393216</v>
+        <v>131072</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>"0x" &amp; DEC2HEX(C4,8)</f>
-        <v>0x00060000</v>
+        <v>0x00020000</v>
       </c>
       <c r="E4" s="5">
         <v>256</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15">
+        <f>SUM(E8:E15)</f>
+        <v>6144</v>
+      </c>
+      <c r="J4" s="16">
+        <v>8192</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <f>C4+E4*1024</f>
-        <v>655360</v>
+        <v>393216</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>"0x" &amp; DEC2HEX(C5,8)</f>
-        <v>0x000A0000</v>
+        <v>0x00060000</v>
       </c>
       <c r="E5" s="5">
         <v>256</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <f>C5+E5*1024</f>
-        <v>917504</v>
+        <v>655360</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>"0x" &amp; DEC2HEX(C6,8)</f>
-        <v>0x000E0000</v>
+        <v>0x000A0000</v>
       </c>
       <c r="E6" s="5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
+        <f>C6+E6*1024</f>
+        <v>917504</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>"0x" &amp; DEC2HEX(C7,8)</f>
+        <v>0x000E0000</v>
       </c>
       <c r="E7" s="5">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C14" si="0">C7+E7*1024</f>
-        <v>262144</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f>"0x" &amp; DEC2HEX(C8,8)</f>
-        <v>0x00040000</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <v>256</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" ref="C9:C15" si="0">C8+E8*1024</f>
+        <v>262144</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>"0x" &amp; DEC2HEX(C9,8)</f>
+        <v>0x00040000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>256</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-      <c r="D9" s="5" t="str">
-        <f>"0x" &amp; DEC2HEX(C9,8)</f>
+      <c r="D10" s="5" t="str">
+        <f>"0x" &amp; DEC2HEX(C10,8)</f>
         <v>0x00080000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>512</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" ref="D10:D14" si="1">"0x" &amp; DEC2HEX(C10,8)</f>
+      <c r="D11" s="5" t="str">
+        <f t="shared" ref="D11:D15" si="1">"0x" &amp; DEC2HEX(C11,8)</f>
         <v>0x00100000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>512</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>1572864</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0x00180000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>2048</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>3670016</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0x00380000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <v>512</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0x00400000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>1024</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>5242880</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0x00500000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>1024</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
